--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Verticals</t>
   </si>
@@ -46,73 +46,97 @@
     <t>SEBI</t>
   </si>
   <si>
+    <t>Circulars</t>
+  </si>
+  <si>
     <t>Press Release</t>
   </si>
   <si>
+    <t>Consulatation Paper</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
     <t>November</t>
   </si>
   <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>Inauguration of SEBI’s Pavilion at the IITF, 2025 by Chairman, SEBI</t>
-  </si>
-  <si>
-    <t>Report of the High Level Committee on Conflict of Interest, Disclosures and  related matters in respect of Members and Officials of SEBI</t>
-  </si>
-  <si>
-    <t>SEBI and IEPFA Conducted the third “Niveshak Shivir” at Amritsar - Proactive  Joint Initiative to Minimize Unclaimed Assets and Facilitate Investor Claims for  Unpaid Dividends and Shares</t>
-  </si>
-  <si>
-    <t>High Level Committee on “Conflict of Interest, Disclosures and related matters in respect of Members and Officials of SEBI” submits its report</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763122672135.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762943978568.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762858201080.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762786201875.pdf</t>
-  </si>
-  <si>
-    <t>1763122672135.pdf</t>
-  </si>
-  <si>
-    <t>1762943978568.pdf</t>
-  </si>
-  <si>
-    <t>1762858201080.pdf</t>
-  </si>
-  <si>
-    <t>1762786201875.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763122672135.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762943978568.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762858201080.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762786201875.pdf</t>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>Specification of the terms and conditions for Debenture Trustees for carrying out activities outside the purview of SEBI</t>
+  </si>
+  <si>
+    <t>Modifications to Chapter IV of the Master Circular for Debenture Trustees dated August 13, 2025</t>
+  </si>
+  <si>
+    <t>Timeline for submission of information by the Issuer to the Debenture Trustee(s)</t>
+  </si>
+  <si>
+    <t>Memorandum of Understanding between Securities and Exchange Board of  India (SEBI) and National Forensic Sciences University (NFSU)</t>
+  </si>
+  <si>
+    <t>Ease of doing investment - Review of simplification of procedure and standardization of formats of documents for issuance of duplicate securities certificates.</t>
+  </si>
+  <si>
+    <t>Ease of investments and ease of doing business measures - Review of the Facility for Basic Services Demat Account (BSDA) for Financial Inclusion.</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072855448.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072737631.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072664415.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764065882362.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764065506896.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763983154863.pdf</t>
+  </si>
+  <si>
+    <t>1764072855448.pdf</t>
+  </si>
+  <si>
+    <t>1764072737631.pdf</t>
+  </si>
+  <si>
+    <t>1764072664415.pdf</t>
+  </si>
+  <si>
+    <t>1764065882362.pdf</t>
+  </si>
+  <si>
+    <t>1764065506896.pdf</t>
+  </si>
+  <si>
+    <t>1763983154863.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072855448.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072737631.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072664415.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1764065882362.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1764065506896.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1763983154863.pdf</t>
   </si>
 </sst>
 </file>
@@ -483,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,25 +550,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -555,25 +579,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -584,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -596,13 +620,13 @@
         <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -610,28 +634,86 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -640,6 +722,8 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Verticals</t>
   </si>
@@ -43,100 +43,76 @@
     <t>Path</t>
   </si>
   <si>
+    <t>AIF</t>
+  </si>
+  <si>
     <t>SEBI</t>
   </si>
   <si>
     <t>Circulars</t>
   </si>
   <si>
-    <t>Press Release</t>
-  </si>
-  <si>
     <t>Consulatation Paper</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>Specification of the terms and conditions for Debenture Trustees for carrying out activities outside the purview of SEBI</t>
-  </si>
-  <si>
-    <t>Modifications to Chapter IV of the Master Circular for Debenture Trustees dated August 13, 2025</t>
-  </si>
-  <si>
-    <t>Timeline for submission of information by the Issuer to the Debenture Trustee(s)</t>
-  </si>
-  <si>
-    <t>Memorandum of Understanding between Securities and Exchange Board of  India (SEBI) and National Forensic Sciences University (NFSU)</t>
-  </si>
-  <si>
-    <t>Ease of doing investment - Review of simplification of procedure and standardization of formats of documents for issuance of duplicate securities certificates.</t>
-  </si>
-  <si>
-    <t>Ease of investments and ease of doing business measures - Review of the Facility for Basic Services Demat Account (BSDA) for Financial Inclusion.</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072855448.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072737631.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072664415.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764065882362.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764065506896.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763983154863.pdf</t>
-  </si>
-  <si>
-    <t>1764072855448.pdf</t>
-  </si>
-  <si>
-    <t>1764072737631.pdf</t>
-  </si>
-  <si>
-    <t>1764072664415.pdf</t>
-  </si>
-  <si>
-    <t>1764065882362.pdf</t>
-  </si>
-  <si>
-    <t>1764065506896.pdf</t>
-  </si>
-  <si>
-    <t>1763983154863.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072855448.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072737631.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072664415.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1764065882362.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1764065506896.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1763983154863.pdf</t>
+    <t>October</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>Transfer of portfolios of clients (PMS business) by Portfolio Managers.</t>
+  </si>
+  <si>
+    <t>Consultation paper for review of LODR Regulations - Clarification regarding the timeline for transfer of unclaimed amount by entity having listed non-convertible securities.</t>
+  </si>
+  <si>
+    <t>Circular on Relaxation of India geo-tagging for NRI clients re-KYCKYC modification through digital on-boarding video client Identification process (V-CIP)</t>
+  </si>
+  <si>
+    <t>Consultation paper on Standardization of process for Opening of Mutual Fund Folios and Execution of First Investment</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1761301360689.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1761306586026.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1761220376339.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1761210652019.pdf</t>
+  </si>
+  <si>
+    <t>1761301360689.pdf</t>
+  </si>
+  <si>
+    <t>1761306586026.pdf</t>
+  </si>
+  <si>
+    <t>1761220376339.pdf</t>
+  </si>
+  <si>
+    <t>1761210652019.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/AIF/Circulars/2025/October/1761301360689.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1761306586026.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1761220376339.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1761210652019.pdf</t>
   </si>
 </sst>
 </file>
@@ -507,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -562,21 +538,21 @@
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -591,21 +567,21 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -614,27 +590,27 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -643,77 +619,19 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -722,8 +640,6 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Verticals</t>
   </si>
@@ -43,76 +43,112 @@
     <t>Path</t>
   </si>
   <si>
+    <t>Listed Companies</t>
+  </si>
+  <si>
     <t>AIF</t>
   </si>
   <si>
     <t>SEBI</t>
   </si>
   <si>
+    <t>Circular-NSE</t>
+  </si>
+  <si>
+    <t>Circular-BSE</t>
+  </si>
+  <si>
     <t>Circulars</t>
   </si>
   <si>
     <t>Consulatation Paper</t>
   </si>
   <si>
+    <t>Master circular</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
     <t>October</t>
   </si>
   <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>Transfer of portfolios of clients (PMS business) by Portfolio Managers.</t>
-  </si>
-  <si>
-    <t>Consultation paper for review of LODR Regulations - Clarification regarding the timeline for transfer of unclaimed amount by entity having listed non-convertible securities.</t>
-  </si>
-  <si>
-    <t>Circular on Relaxation of India geo-tagging for NRI clients re-KYCKYC modification through digital on-boarding video client Identification process (V-CIP)</t>
-  </si>
-  <si>
-    <t>Consultation paper on Standardization of process for Opening of Mutual Fund Folios and Execution of First Investment</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1761301360689.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1761306586026.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1761220376339.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1761210652019.pdf</t>
-  </si>
-  <si>
-    <t>1761301360689.pdf</t>
-  </si>
-  <si>
-    <t>1761306586026.pdf</t>
-  </si>
-  <si>
-    <t>1761220376339.pdf</t>
-  </si>
-  <si>
-    <t>1761210652019.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/AIF/Circulars/2025/October/1761301360689.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1761306586026.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1761220376339.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1761210652019.pdf</t>
+    <t>2025-10-14</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-13</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>SEBI Circular on “Minimum information to be provided to the Audit Committee and Shareholders for approval of Related Party Transactions.”</t>
+  </si>
+  <si>
+    <t>Relaxation in timeline for disclosure of allocation methodology by Angel Funds</t>
+  </si>
+  <si>
+    <t>Minimum information to be provided to the Audit Committee and Shareholders for approval of Related Party Transactions</t>
+  </si>
+  <si>
+    <t>Consultation paper on proposed amendment to certain provisions of SEBI (LODR) Regulations, 2015 to facilitate transfer of securities transferred prior to April 1, 2019 and simplify the process of dematerialization of shares</t>
+  </si>
+  <si>
+    <t>Master Circular for issue and listing of Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities and Commercial Paper</t>
+  </si>
+  <si>
+    <t>https://nsearchives.nseindia.com//web/circular/2025-10/NSE_Circular_14102025_20251014172300.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251014-34&amp;attachedId=dbe355c0-4b37-4967-8429-b7b6c97dbeba</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760525216783.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760356560260.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760699641194.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760532257519.pdf</t>
+  </si>
+  <si>
+    <t>SEBI_Circular_on_Minimum_information_to_be_provided_to_the_Audit_Committee_and_Shareholders_for_appr.pdf</t>
+  </si>
+  <si>
+    <t>1760525216783.pdf</t>
+  </si>
+  <si>
+    <t>1760356560260.pdf</t>
+  </si>
+  <si>
+    <t>1760699641194.pdf</t>
+  </si>
+  <si>
+    <t>1760532257519.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-NSE/2025/October/SEBI_Circular_on_Minimum_information_to_be_provided_to_the_Audit_Committee_and_Shareholders_for_appr.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/October/SEBI_Circular_on_Minimum_information_to_be_provided_to_the_Audit_Committee_and_Shareholders_for_appr.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/AIF/Circulars/2025/October/1760525216783.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/October/1760356560260.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1760699641194.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Master circular/2025/October/1760532257519.pdf</t>
   </si>
 </sst>
 </file>
@@ -483,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,57 +559,57 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -581,57 +617,115 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -640,6 +734,8 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Verticals</t>
   </si>
@@ -46,109 +46,91 @@
     <t>Listed Companies</t>
   </si>
   <si>
-    <t>AIF</t>
-  </si>
-  <si>
     <t>SEBI</t>
   </si>
   <si>
-    <t>Circular-NSE</t>
-  </si>
-  <si>
     <t>Circular-BSE</t>
   </si>
   <si>
-    <t>Circulars</t>
+    <t>Press Release</t>
   </si>
   <si>
     <t>Consulatation Paper</t>
   </si>
   <si>
-    <t>Master circular</t>
-  </si>
-  <si>
     <t>2025</t>
   </si>
   <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>SEBI Circular on “Minimum information to be provided to the Audit Committee and Shareholders for approval of Related Party Transactions.”</t>
-  </si>
-  <si>
-    <t>Relaxation in timeline for disclosure of allocation methodology by Angel Funds</t>
-  </si>
-  <si>
-    <t>Minimum information to be provided to the Audit Committee and Shareholders for approval of Related Party Transactions</t>
-  </si>
-  <si>
-    <t>Consultation paper on proposed amendment to certain provisions of SEBI (LODR) Regulations, 2015 to facilitate transfer of securities transferred prior to April 1, 2019 and simplify the process of dematerialization of shares</t>
-  </si>
-  <si>
-    <t>Master Circular for issue and listing of Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities and Commercial Paper</t>
-  </si>
-  <si>
-    <t>https://nsearchives.nseindia.com//web/circular/2025-10/NSE_Circular_14102025_20251014172300.pdf</t>
-  </si>
-  <si>
-    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251014-34&amp;attachedId=dbe355c0-4b37-4967-8429-b7b6c97dbeba</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760525216783.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760356560260.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760699641194.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760532257519.pdf</t>
-  </si>
-  <si>
-    <t>SEBI_Circular_on_Minimum_information_to_be_provided_to_the_Audit_Committee_and_Shareholders_for_appr.pdf</t>
-  </si>
-  <si>
-    <t>1760525216783.pdf</t>
-  </si>
-  <si>
-    <t>1760356560260.pdf</t>
-  </si>
-  <si>
-    <t>1760699641194.pdf</t>
-  </si>
-  <si>
-    <t>1760532257519.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-NSE/2025/October/SEBI_Circular_on_Minimum_information_to_be_provided_to_the_Audit_Committee_and_Shareholders_for_appr.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/October/SEBI_Circular_on_Minimum_information_to_be_provided_to_the_Audit_Committee_and_Shareholders_for_appr.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/AIF/Circulars/2025/October/1760525216783.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/October/1760356560260.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1760699641194.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Master circular/2025/October/1760532257519.pdf</t>
+    <t>November</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>Master Circular for issue and listing of Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities and Commercial Paper.</t>
+  </si>
+  <si>
+    <t>XBRL based filing of Regulation 50 for Entities which has listed its non-convertible securities</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions (FAQ) for submission of financial results as required under Regulation 33 of SEBI (LODR) Regulations, 2015 &amp; Master circular for compliance with the provisions of the SEBI (LODR) Regulations, 2015.</t>
+  </si>
+  <si>
+    <t>Caution to Public regarding unregistered Online Bond Platform Providers</t>
+  </si>
+  <si>
+    <t>Extension of timeline for submission of public comments on the consultation paper on 'Comprehensive review of SEBI (Mutual Funds) regulations, 1996'</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251121-73&amp;attachedId=80bb176a-9beb-47e3-99ff-4832d65a2c1b</t>
+  </si>
+  <si>
+    <t>PrintToPDF</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251117-20&amp;attachedId=7f776d85-62d5-4358-8d03-694f1de8f401</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763551749033.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763551731559.pdf</t>
+  </si>
+  <si>
+    <t>Master_Circular_for_issue_and_listing_of_Non_convertible_Securities_Securitised_Debt_Instruments_Sec.pdf</t>
+  </si>
+  <si>
+    <t>XBRL_based_filing_of_Regulation_50_for_Entities_which_has_listed_its_non_convertible_securities.pdf</t>
+  </si>
+  <si>
+    <t>Frequently_Asked_Questions_FAQ_for_submission_of_financial_results_as_required_under_Regulation_33_o.pdf</t>
+  </si>
+  <si>
+    <t>1763551749033.pdf</t>
+  </si>
+  <si>
+    <t>1763551731559.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/Master_Circular_for_issue_and_listing_of_Non_convertible_Securities_Securitised_Debt_Instruments_Sec.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/XBRL_based_filing_of_Regulation_50_for_Entities_which_has_listed_its_non_convertible_securities.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/Frequently_Asked_Questions_FAQ_for_submission_of_financial_results_as_required_under_Regulation_33_o.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763551749033.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1763551731559.pdf</t>
   </si>
 </sst>
 </file>
@@ -519,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,28 +541,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -588,154 +570,123 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -91,7 +91,7 @@
     <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251121-73&amp;attachedId=80bb176a-9beb-47e3-99ff-4832d65a2c1b</t>
   </si>
   <si>
-    <t>PrintToPDF</t>
+    <t>https://www.bseindia.com/markets/MarketInfo/DispNewNoticesCirculars.aspx?page=20251121-72</t>
   </si>
   <si>
     <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251117-20&amp;attachedId=7f776d85-62d5-4358-8d03-694f1de8f401</t>
@@ -584,7 +584,7 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
@@ -684,9 +684,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,88 +46,88 @@
     <t>Listed Companies</t>
   </si>
   <si>
+    <t>Circular-BSE</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>Master Circular for issue and listing of Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities and Commercial Paper.</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251121-73&amp;attachedId=80bb176a-9beb-47e3-99ff-4832d65a2c1b</t>
+  </si>
+  <si>
+    <t>Master_Circular_for_issue_and_listing_of_Non_convertible_Securities_Securitised_Debt_Instruments_Sec.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/Master_Circular_for_issue_and_listing_of_Non_convertible_Securities_Securitised_Debt_Instruments_Sec.pdf</t>
+  </si>
+  <si>
+    <t>XBRL based filing of Regulation 50 for Entities which has listed its non-convertible securities</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DispNewNoticesCirculars.aspx?page=20251121-72</t>
+  </si>
+  <si>
+    <t>XBRL_based_filing_of_Regulation_50_for_Entities_which_has_listed_its_non_convertible_securities.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/XBRL_based_filing_of_Regulation_50_for_Entities_which_has_listed_its_non_convertible_securities.pdf</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions (FAQ) for submission of financial results as required under Regulation 33 of SEBI (LODR) Regulations, 2015 &amp; Master circular for compliance with the provisions of the SEBI (LODR) Regulations, 2015.</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251117-20&amp;attachedId=7f776d85-62d5-4358-8d03-694f1de8f401</t>
+  </si>
+  <si>
+    <t>Frequently_Asked_Questions_FAQ_for_submission_of_financial_results_as_required_under_Regulation_33_o.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/Frequently_Asked_Questions_FAQ_for_submission_of_financial_results_as_required_under_Regulation_33_o.pdf</t>
+  </si>
+  <si>
     <t>SEBI</t>
   </si>
   <si>
-    <t>Circular-BSE</t>
-  </si>
-  <si>
     <t>Press Release</t>
   </si>
   <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>Caution to Public regarding unregistered Online Bond Platform Providers</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763551749033.pdf</t>
+  </si>
+  <si>
+    <t>1763551749033.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763551749033.pdf</t>
+  </si>
+  <si>
     <t>Consulatation Paper</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>Master Circular for issue and listing of Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities and Commercial Paper.</t>
-  </si>
-  <si>
-    <t>XBRL based filing of Regulation 50 for Entities which has listed its non-convertible securities</t>
-  </si>
-  <si>
-    <t>Frequently Asked Questions (FAQ) for submission of financial results as required under Regulation 33 of SEBI (LODR) Regulations, 2015 &amp; Master circular for compliance with the provisions of the SEBI (LODR) Regulations, 2015.</t>
-  </si>
-  <si>
-    <t>Caution to Public regarding unregistered Online Bond Platform Providers</t>
-  </si>
-  <si>
     <t>Extension of timeline for submission of public comments on the consultation paper on 'Comprehensive review of SEBI (Mutual Funds) regulations, 1996'</t>
   </si>
   <si>
-    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251121-73&amp;attachedId=80bb176a-9beb-47e3-99ff-4832d65a2c1b</t>
-  </si>
-  <si>
-    <t>https://www.bseindia.com/markets/MarketInfo/DispNewNoticesCirculars.aspx?page=20251121-72</t>
-  </si>
-  <si>
-    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251117-20&amp;attachedId=7f776d85-62d5-4358-8d03-694f1de8f401</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763551749033.pdf</t>
-  </si>
-  <si>
     <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763551731559.pdf</t>
   </si>
   <si>
-    <t>Master_Circular_for_issue_and_listing_of_Non_convertible_Securities_Securitised_Debt_Instruments_Sec.pdf</t>
-  </si>
-  <si>
-    <t>XBRL_based_filing_of_Regulation_50_for_Entities_which_has_listed_its_non_convertible_securities.pdf</t>
-  </si>
-  <si>
-    <t>Frequently_Asked_Questions_FAQ_for_submission_of_financial_results_as_required_under_Regulation_33_o.pdf</t>
-  </si>
-  <si>
-    <t>1763551749033.pdf</t>
-  </si>
-  <si>
     <t>1763551731559.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/Master_Circular_for_issue_and_listing_of_Non_convertible_Securities_Securitised_Debt_Instruments_Sec.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/XBRL_based_filing_of_Regulation_50_for_Entities_which_has_listed_its_non_convertible_securities.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/November/Frequently_Asked_Questions_FAQ_for_submission_of_financial_results_as_required_under_Regulation_33_o.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763551749033.pdf</t>
   </si>
   <si>
     <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1763551731559.pdf</t>
@@ -136,8 +136,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,15 +149,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -169,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,40 +179,55 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -221,10 +236,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -262,69 +277,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,54 +365,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -405,7 +421,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -414,7 +430,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -423,7 +439,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -431,10 +447,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -463,7 +479,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -476,13 +492,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -500,14 +515,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,159 +565,152 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>Verticals</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Consultation Paper</t>
   </si>
   <si>
+    <t>Regulations</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
     <t>2025-12-02</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>Shri Sandip Pradhan takes charge as Whole Time Member, SEBI</t>
   </si>
   <si>
+    <t>India: Financial Sector Assessment Program, 2024</t>
+  </si>
+  <si>
     <t>Niveshak Shivir to be held on December 06, 2025 in the city of Jaipur, Rajasthan</t>
   </si>
   <si>
@@ -79,7 +88,28 @@
     <t>Consultation Paper on Review of existing position limits for Trading Members in Equity Derivatives Segment</t>
   </si>
   <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764949323355.pdf</t>
+    <t>Securities and Exchange Board of India (Intermediaries​) (Third Amendment) Regulations, 2025</t>
+  </si>
+  <si>
+    <t>Securities and Exchange Board of India (Substantial Acquisition of Shares and Takeovers) (Amendment) Regulations, 2025</t>
+  </si>
+  <si>
+    <t>Securities and Exchange Board of India (Merchant Bankers) (Amendment) Regulations, 2025</t>
+  </si>
+  <si>
+    <t>Securities and Exchange Board of India (Share Based Employee Benefits and Sweat Equity) (Second Amendment) Regulations, 2025</t>
+  </si>
+  <si>
+    <t>Securities and Exchange Board of India (Foreign Venture Capital Investors) (Amendment) Regulations, 2025</t>
+  </si>
+  <si>
+    <t>Securities and Exchange Board of India (Foreign Portfolio Investors) (Second Amendment) Regulations, 2025</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1765190360681.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764758072366.pdf</t>
   </si>
   <si>
     <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764675345527.pdf</t>
@@ -91,7 +121,28 @@
     <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764859538149.pdf</t>
   </si>
   <si>
-    <t>1764949323355.pdf</t>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1765172737392.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1765172337309.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1765171459782.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1765172885621.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764762979981.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764762906502.pdf</t>
+  </si>
+  <si>
+    <t>1765190360681.pdf</t>
+  </si>
+  <si>
+    <t>1764758072366.pdf</t>
   </si>
   <si>
     <t>1764675345527.pdf</t>
@@ -103,16 +154,55 @@
     <t>1764859538149.pdf</t>
   </si>
   <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/December/1764949323355.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/December/1764675345527.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consultation Paper/2025/December/1764943412112.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consultation Paper/2025/December/1764859538149.pdf</t>
+    <t>1765172737392.pdf</t>
+  </si>
+  <si>
+    <t>1765172337309.pdf</t>
+  </si>
+  <si>
+    <t>1765171459782.pdf</t>
+  </si>
+  <si>
+    <t>1765172885621.pdf</t>
+  </si>
+  <si>
+    <t>1764762979981.pdf</t>
+  </si>
+  <si>
+    <t>1764762906502.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Press Release/2025/December/1765190360681.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Press Release/2025/December/1764758072366.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Press Release/2025/December/1764675345527.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Consultation Paper/2025/December/1764943412112.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Consultation Paper/2025/December/1764859538149.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Regulations/2025/December/1765172737392.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Regulations/2025/December/1765172337309.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Regulations/2025/December/1765171459782.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Regulations/2025/December/1765172885621.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Regulations/2025/December/1764762979981.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Regulations/2025/December/1764762906502.pdf</t>
   </si>
 </sst>
 </file>
@@ -483,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,25 +616,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -555,25 +645,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -581,28 +671,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -613,25 +703,228 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -640,6 +933,13 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="tlEySi2KcqRk7bcKoJLueleZR+u1xtVhcQM9lXV9uDg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="8VG+5aypZWYbKqn7YeO1oc+ExJEz+m0pYkHEuEATax4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Verticals</t>
   </si>
@@ -45,35 +45,38 @@
     <t>Path</t>
   </si>
   <si>
-    <t>SEBI</t>
-  </si>
-  <si>
-    <t>Circulars</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
-    <t>Minimum information to be provided to the Audit Committee and Shareholders for approval of Related Party Transactions</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760356560260.pdf</t>
-  </si>
-  <si>
-    <t>1760356560260.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/October/1760356560260.pdf</t>
+    <t>AIF</t>
+  </si>
+  <si>
+    <t>Regulations</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>Securities and Exchange Board of India (Real Estate Investment Trusts) Regulations, 2014  [Last amended on December 11, 2025]</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1765541474113.pdf</t>
+  </si>
+  <si>
+    <t>1765541474113.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/AIF/Regulations/2025/December/1765541474113.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -87,8 +90,19 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -120,19 +134,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -388,49 +399,58 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>2025.0</v>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="3">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="11">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="G13" s="4"/>
+    </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1407,10 +1427,17 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="8VG+5aypZWYbKqn7YeO1oc+ExJEz+m0pYkHEuEATax4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nUb8w2Dme5qm76vc/8onKAKKYKWapXZaHpY1QxLOl54="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Verticals</t>
   </si>
@@ -45,18 +45,39 @@
     <t>Path</t>
   </si>
   <si>
+    <t>SEBI</t>
+  </si>
+  <si>
+    <t>Circulars</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>Provisions relating to Strengthening Governance of Market Infrastructure Institutions (MIIs)</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1765535283954.pdf</t>
+  </si>
+  <si>
+    <t>1765535283954.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Circulars/2025/December/1765535283954.pdf</t>
+  </si>
+  <si>
     <t>AIF</t>
   </si>
   <si>
     <t>Regulations</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>2025-12-11</t>
   </si>
   <si>
@@ -70,13 +91,34 @@
   </si>
   <si>
     <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/AIF/Regulations/2025/December/1765541474113.pdf</t>
+  </si>
+  <si>
+    <t>Listed Companies</t>
+  </si>
+  <si>
+    <t>Circular-BSE</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>Timeline for submission of information by the Issuer to the Debenture Trustee(s)</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251209-53&amp;attachedId=3c58b20b-4d62-43be-b20f-8a824667e02b</t>
+  </si>
+  <si>
+    <t>Timeline for submission of information by the Issuer to DT.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/Listed Companies/Circular-BSE/2025/December/Timeline for submission of information by the Issuer to DT.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -93,6 +135,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -134,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -142,8 +190,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -422,34 +476,68 @@
       </c>
     </row>
     <row r="3">
-      <c r="G3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="G5" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6">
-      <c r="G6" s="4"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7">
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="G9" s="4"/>
-    </row>
-    <row r="11">
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="G13" s="4"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1434,10 +1522,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Verticals</t>
   </si>
@@ -46,43 +46,43 @@
     <t>SEBI</t>
   </si>
   <si>
-    <t>Press Release</t>
-  </si>
-  <si>
-    <t>2025</t>
+    <t>Master Circular</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>Master Circular on Surveillance of Securities Market</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/legal/master-circulars/sep-2024/master-circular-on-surveillance-of-securities-market_86929.html</t>
+  </si>
+  <si>
+    <t>1727094551693.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Master Circular/2024/September/1727094551693.pdf</t>
   </si>
   <si>
     <t>December</t>
   </si>
   <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>Clarification on a newsitem</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1766319927198.pdf</t>
-  </si>
-  <si>
-    <t>1766319927198.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Press Release/2025/December/1766319927198.pdf</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>SEBI Board Meeting</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1765977060104.pdf</t>
-  </si>
-  <si>
-    <t>1765977060104.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Press Release/2025/December/1765977060104.pdf</t>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>Master Circular for Depositories</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/legal/master-circulars/dec-2024/master-circular-for-depositories_89245.html</t>
+  </si>
+  <si>
+    <t>1733233982158.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Master Circular/2024/December/1733233982158.pdf</t>
   </si>
 </sst>
 </file>
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,18 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -155,19 +167,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,15 +504,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="39.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -495,7 +522,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -518,60 +545,60 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Verticals</t>
   </si>
@@ -46,51 +46,50 @@
     <t>SEBI</t>
   </si>
   <si>
-    <t>Master Circular</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>2025-09-23</t>
-  </si>
-  <si>
-    <t>Master Circular on Surveillance of Securities Market</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/legal/master-circulars/sep-2024/master-circular-on-surveillance-of-securities-market_86929.html</t>
-  </si>
-  <si>
-    <t>1727094551693.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Master Circular/2024/September/1727094551693.pdf</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>Master Circular for Depositories</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/legal/master-circulars/dec-2024/master-circular-for-depositories_89245.html</t>
-  </si>
-  <si>
-    <t>1733233982158.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs_test/Akshayam Data/SEBI/Master Circular/2024/December/1733233982158.pdf</t>
+    <t>Press Release</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>Report of the High Level Committee on Conflict of Interest, Disclosures and  related matters in respect of Members and Officials of SEBI</t>
+  </si>
+  <si>
+    <t>High Level Committee on “Conflict of Interest, Disclosures and related matters in respect of Members and Officials of SEBI” submits its report</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762943978568.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762786201875.pdf</t>
+  </si>
+  <si>
+    <t>1762943978568.pdf</t>
+  </si>
+  <si>
+    <t>1762786201875.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762943978568.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762786201875.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,26 +100,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -133,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,70 +131,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -215,10 +173,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -256,71 +214,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -344,53 +300,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +357,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -409,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -426,10 +383,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -458,7 +415,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -471,12 +428,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -494,35 +452,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="39.71928571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -544,65 +488,69 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
-        <v>2024</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2024</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Verticals</t>
   </si>
@@ -46,43 +46,73 @@
     <t>SEBI</t>
   </si>
   <si>
-    <t>Press Release</t>
+    <t>Listed Companies</t>
+  </si>
+  <si>
+    <t>Circulars</t>
+  </si>
+  <si>
+    <t>Circular-BSE</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>Report of the High Level Committee on Conflict of Interest, Disclosures and  related matters in respect of Members and Officials of SEBI</t>
-  </si>
-  <si>
-    <t>High Level Committee on “Conflict of Interest, Disclosures and related matters in respect of Members and Officials of SEBI” submits its report</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762943978568.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762786201875.pdf</t>
-  </si>
-  <si>
-    <t>1762943978568.pdf</t>
-  </si>
-  <si>
-    <t>1762786201875.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762943978568.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762786201875.pdf</t>
+    <t>December</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>Ease of doing investment - Review of simplification of procedure and standardization of formats of documents for issuance of duplicate certificates</t>
+  </si>
+  <si>
+    <t>Ease of investments and ease of doing business measures – enhancing the ‘Facility for Basic Services Demat Account (BSDA)’</t>
+  </si>
+  <si>
+    <t>Modification in the conditions specified for reduction in denomination of debt securities</t>
+  </si>
+  <si>
+    <t>Mandating periodic disclosure requirements- Securitised Debt  Instruments (SDIs).</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1766582923860.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1766582690382.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251222-26&amp;attachedId=0d20dbb4-212c-4f39-b26f-eb454f0b01f6</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251222-25&amp;attachedId=346068c6-8cff-4f03-a397-067c6b16dff8</t>
+  </si>
+  <si>
+    <t>1766582923860.pdf</t>
+  </si>
+  <si>
+    <t>1766582690382.pdf</t>
+  </si>
+  <si>
+    <t>Modification_in_the_conditions_specified_for_reduction_in_denomination_of_debt_securities.pdf</t>
+  </si>
+  <si>
+    <t>Mandating_periodic_disclosure_requirements_Securitised_Debt_Instruments_SDIs.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/December/1766582923860.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/December/1766582690382.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/December/Modification_in_the_conditions_specified_for_reduction_in_denomination_of_debt_securities.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/December/Mandating_periodic_disclosure_requirements_Securitised_Debt_Instruments_SDIs.pdf</t>
   </si>
 </sst>
 </file>
@@ -453,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,28 +523,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -522,34 +552,94 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Verticals</t>
   </si>
@@ -46,6 +46,9 @@
     <t>SEBI</t>
   </si>
   <si>
+    <t>AIF</t>
+  </si>
+  <si>
     <t>Listed Companies</t>
   </si>
   <si>
@@ -55,64 +58,58 @@
     <t>Circular-BSE</t>
   </si>
   <si>
+    <t>2026</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
+    <t>January</t>
+  </si>
+  <si>
     <t>December</t>
   </si>
   <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>Ease of doing investment - Review of simplification of procedure and standardization of formats of documents for issuance of duplicate certificates</t>
-  </si>
-  <si>
-    <t>Ease of investments and ease of doing business measures – enhancing the ‘Facility for Basic Services Demat Account (BSDA)’</t>
-  </si>
-  <si>
-    <t>Modification in the conditions specified for reduction in denomination of debt securities</t>
-  </si>
-  <si>
-    <t>Mandating periodic disclosure requirements- Securitised Debt  Instruments (SDIs).</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1766582923860.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1766582690382.pdf</t>
-  </si>
-  <si>
-    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251222-26&amp;attachedId=0d20dbb4-212c-4f39-b26f-eb454f0b01f6</t>
-  </si>
-  <si>
-    <t>https://www.bseindia.com/markets/MarketInfo/DownloadAttach.aspx?id=20251222-25&amp;attachedId=346068c6-8cff-4f03-a397-067c6b16dff8</t>
-  </si>
-  <si>
-    <t>1766582923860.pdf</t>
-  </si>
-  <si>
-    <t>1766582690382.pdf</t>
-  </si>
-  <si>
-    <t>Modification_in_the_conditions_specified_for_reduction_in_denomination_of_debt_securities.pdf</t>
-  </si>
-  <si>
-    <t>Mandating_periodic_disclosure_requirements_Securitised_Debt_Instruments_SDIs.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/December/1766582923860.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/December/1766582690382.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/December/Modification_in_the_conditions_specified_for_reduction_in_denomination_of_debt_securities.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2025/December/Mandating_periodic_disclosure_requirements_Securitised_Debt_Instruments_SDIs.pdf</t>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>Specification of the consequential requirements with respect to Amendment of Securities and Exchange Board of India (Merchant Bankers) Regulations, 1992</t>
+  </si>
+  <si>
+    <t>Certification requirement for Compliance Officers of Managers of AIFs</t>
+  </si>
+  <si>
+    <t>Update on single filing system through API-based integration between Stock Exchanges</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/jan-2026/1767358255887.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1767092981193.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bseindia.com/markets/MarketInfo/DispNewNoticesCirculars.aspx?page=20260102-23</t>
+  </si>
+  <si>
+    <t>1767358255887.pdf</t>
+  </si>
+  <si>
+    <t>1767092981193.pdf</t>
+  </si>
+  <si>
+    <t>Update_on_single_filing_system_through_API_based_integration_between_Stock_Exchanges.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2026/January/1767358255887.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/AIF/Circulars/2025/December/1767092981193.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2026/January/Update_on_single_filing_system_through_API_based_integration_between_Stock_Exchanges.pdf</t>
   </si>
 </sst>
 </file>
@@ -483,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,25 +520,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -549,28 +546,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -578,60 +575,31 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +607,6 @@
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/weekly_sebi_downloads.xlsx
+++ b/data/weekly_sebi_downloads.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Verticals</t>
   </si>
@@ -43,80 +43,90 @@
     <t>Path</t>
   </si>
   <si>
-    <t>SEBI</t>
-  </si>
-  <si>
-    <t>AIF</t>
-  </si>
-  <si>
-    <t>Listed Companies</t>
+    <t>IFSCA</t>
+  </si>
+  <si>
+    <t>Regulations</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>IFSCA (PRC) (Amendment) Regulations 2026</t>
+  </si>
+  <si>
+    <t>https://ifsca.gov.in/CommonDirect/DownloadFile?id=36ff47aaeb9222f627d166fe86267d93&amp;fileName=IFSCA__PRC___Amendment__Regulations_2026_20260112_0640.pdf</t>
+  </si>
+  <si>
+    <t>IFSCA__PRC___Amendment__Regulations_2026_20260112_0640.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/IFSCA/Regulations/2026/January/IFSCA__PRC___Amendment__Regulations_2026_20260112_0640.pdf</t>
+  </si>
+  <si>
+    <t>Press Release</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>Modifications under the International Financial Services Centres Authority (Anti Money Laundering, Counter-Terrorist Financing and Know Your Customer) Guidelines, 2022 and Issuance of FAQs on V-CIP</t>
+  </si>
+  <si>
+    <t>https://ifsca.gov.in/CommonDirect/DownloadFile?id=38fea9cc5969551d78bf00e670f66fdc&amp;fileName=Press_Release__05012026_20260105_0727.pdf</t>
+  </si>
+  <si>
+    <t>Press_Release__05012026_20260105_0727.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/IFSCA/Press Release/2026/January/Press_Release__05012026_20260105_0727.pdf</t>
   </si>
   <si>
     <t>Circulars</t>
   </si>
   <si>
-    <t>Circular-BSE</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>Specification of the consequential requirements with respect to Amendment of Securities and Exchange Board of India (Merchant Bankers) Regulations, 1992</t>
-  </si>
-  <si>
-    <t>Certification requirement for Compliance Officers of Managers of AIFs</t>
-  </si>
-  <si>
-    <t>Update on single filing system through API-based integration between Stock Exchanges</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/jan-2026/1767358255887.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1767092981193.pdf</t>
-  </si>
-  <si>
-    <t>https://www.bseindia.com/markets/MarketInfo/DispNewNoticesCirculars.aspx?page=20260102-23</t>
-  </si>
-  <si>
-    <t>1767358255887.pdf</t>
-  </si>
-  <si>
-    <t>1767092981193.pdf</t>
-  </si>
-  <si>
-    <t>Update_on_single_filing_system_through_API_based_integration_between_Stock_Exchanges.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2026/January/1767358255887.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/AIF/Circulars/2025/December/1767092981193.pdf</t>
-  </si>
-  <si>
-    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/Listed Companies/Circular-BSE/2026/January/Update_on_single_filing_system_through_API_based_integration_between_Stock_Exchanges.pdf</t>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>Procedure and clarification on filing of scheme application under Third-Party Fund Management Arrangement</t>
+  </si>
+  <si>
+    <t>https://ifsca.gov.in/CommonDirect/DownloadFile?id=36ff47aaeb9222f627d166fe8643b3cc&amp;fileName=Procedure_and_clarification_on_filing_of_scheme_application_under_Third_Party_Fund_Management_Arrangement_20260116_0557.pdf</t>
+  </si>
+  <si>
+    <t>Procedure_and_clarification_on_filing_of_scheme_application_under_Third_Party_Fund_Management_Arrangement_20260116_0557.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/IFSCA/Circulars/2026/January/Procedure_and_clarification_on_filing_of_scheme_application_under_Third_Party_Fund_Management_Arrangement_20260116_0557.pdf</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>Notification on enabling ‘Oilfield Equipment’ as a financial product in IFSC</t>
+  </si>
+  <si>
+    <t>https://ifsca.gov.in/CommonDirect/DownloadFile?id=36ff47aaeb9222f627d166fe8622cebd&amp;fileName=101_Oilfiled_equipment_notification__1__20260112_0247.pdf</t>
+  </si>
+  <si>
+    <t>101_Oilfiled_equipment_notification__1__20260112_0247.pdf</t>
+  </si>
+  <si>
+    <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/IFSCA/Notifications/2026/January/101_Oilfiled_equipment_notification__1__20260112_0247.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,15 +137,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -148,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,40 +173,73 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -200,10 +248,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -241,69 +289,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -327,54 +377,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -384,7 +433,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -393,7 +442,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -402,7 +451,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,10 +459,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -442,7 +491,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -455,13 +504,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -479,21 +527,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -515,99 +577,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2026</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2026</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C4" s="4">
+        <v>2026</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C5" s="6">
+        <v>2026</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>